--- a/figures/jm/table 1.xlsx
+++ b/figures/jm/table 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\index\figures\jm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoudsmit/Dropbox/TRX/Lever/PhD/Schrijven/Thesis in R/figures/jm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382C682D-5CB5-4212-AD98-8DA8814AFA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959404BE-BB2C-7547-A272-6EE7A3268C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14475" yWindow="3030" windowWidth="13605" windowHeight="15465" xr2:uid="{174C7F39-EB47-45D1-B417-691CC66143C2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{174C7F39-EB47-45D1-B417-691CC66143C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
   <si>
     <t>Table 1. Baseline characteristics for the Eurotransplant and UNOS regions</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Region</t>
+  </si>
+  <si>
+    <t>10796 (66.3)</t>
+  </si>
+  <si>
+    <t>19334 (63.3)</t>
   </si>
 </sst>
 </file>
@@ -357,14 +363,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,18 +688,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6026D9-9884-4ABB-A10F-DA2D5A4DE869}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -704,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -715,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -726,7 +732,7 @@
         <v>30533</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -737,18 +743,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -759,7 +765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -770,7 +776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -781,7 +787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -792,7 +798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -803,7 +809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
@@ -814,7 +820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -825,7 +831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -836,7 +842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
@@ -847,7 +853,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -858,7 +864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -869,7 +875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -880,7 +886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
@@ -891,7 +897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -902,7 +908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -913,7 +919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
@@ -924,7 +930,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>63</v>
       </c>
@@ -935,7 +941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>66</v>
       </c>
@@ -946,20 +952,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+    <row r="24" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -979,21 +985,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>72</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>30533</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1136,12 +1142,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -1218,7 +1224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>57</v>
       </c>
@@ -1240,7 +1246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>63</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>66</v>
       </c>
@@ -1273,26 +1279,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/figures/jm/table 1.xlsx
+++ b/figures/jm/table 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengoudsmit/Dropbox/TRX/Lever/PhD/Schrijven/Thesis in R/figures/jm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_g\Dropbox\TRX\Lever\PhD\Schrijven\index\figures\jm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959404BE-BB2C-7547-A272-6EE7A3268C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382C682D-5CB5-4212-AD98-8DA8814AFA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{174C7F39-EB47-45D1-B417-691CC66143C2}"/>
+    <workbookView xWindow="-14475" yWindow="3030" windowWidth="13605" windowHeight="15465" xr2:uid="{174C7F39-EB47-45D1-B417-691CC66143C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>Table 1. Baseline characteristics for the Eurotransplant and UNOS regions</t>
   </si>
@@ -254,12 +254,6 @@
   </si>
   <si>
     <t>Region</t>
-  </si>
-  <si>
-    <t>10796 (66.3)</t>
-  </si>
-  <si>
-    <t>19334 (63.3)</t>
   </si>
 </sst>
 </file>
@@ -363,14 +357,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,18 +682,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6026D9-9884-4ABB-A10F-DA2D5A4DE869}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -710,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -721,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -732,7 +726,7 @@
         <v>30533</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -743,18 +737,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -765,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -776,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -787,7 +781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -798,7 +792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -809,7 +803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
@@ -820,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
@@ -831,7 +825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -842,7 +836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
@@ -853,7 +847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -864,7 +858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
@@ -875,7 +869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -886,7 +880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>51</v>
       </c>
@@ -897,7 +891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -908,7 +902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -919,7 +913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
@@ -930,7 +924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>63</v>
       </c>
@@ -941,7 +935,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>66</v>
       </c>
@@ -952,20 +946,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+    <row r="24" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -985,21 +979,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>72</v>
       </c>
@@ -1010,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1026,7 @@
         <v>30533</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1098,7 +1092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1109,7 +1103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1120,7 +1114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -1131,7 +1125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1142,12 +1136,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
@@ -1158,7 +1152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1169,7 +1163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
@@ -1180,7 +1174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -1191,7 +1185,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -1213,7 +1207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>54</v>
       </c>
@@ -1224,7 +1218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1235,7 +1229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>57</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -1257,7 +1251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>63</v>
       </c>
@@ -1268,7 +1262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>66</v>
       </c>
@@ -1279,26 +1273,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
